--- a/Lit_survey/Databases_online.xlsx
+++ b/Lit_survey/Databases_online.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20370"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cv124\Documents\GitHub\dh-eastasia-data\Lit_survey\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Documents\GitHub\dh-eastasia-data\Lit_survey\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58C5B1C-0CB9-4E23-B906-599BE3AC29DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13485"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13490" tabRatio="269" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="73">
   <si>
     <t>民国时期期刊全文数据库</t>
   </si>
@@ -48,13 +49,368 @@
   </si>
   <si>
     <t>字林洋行中英文报纸全文数据库(1850～1951)</t>
+  </si>
+  <si>
+    <t>民国图书</t>
+  </si>
+  <si>
+    <t>民国法律</t>
+  </si>
+  <si>
+    <t>国家图书馆</t>
+  </si>
+  <si>
+    <t>上海图书馆</t>
+  </si>
+  <si>
+    <t>江图书馆</t>
+  </si>
+  <si>
+    <r>
+      <t>民国时期期刊全文数据库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color theme="1"/>
+        <rFont val="AdobeHeitiStd-Regular"/>
+      </rPr>
+      <t xml:space="preserve">( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color theme="1"/>
+        <rFont val="E-BZ+ZIfJcX-3"/>
+      </rPr>
+      <t>1911～1949</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color theme="1"/>
+        <rFont val="AdobeHeitiStd-Regular"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>孙中山文献全文库</t>
+  </si>
+  <si>
+    <t>广东省立中山图书馆</t>
+  </si>
+  <si>
+    <t>中国人民大学图书馆</t>
+  </si>
+  <si>
+    <t>北京大学图书馆</t>
+  </si>
+  <si>
+    <t>民国旧报刊全文数据库</t>
+  </si>
+  <si>
+    <t>武汉大学图书馆</t>
+  </si>
+  <si>
+    <r>
+      <t>武汉大学图书馆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color theme="1"/>
+        <rFont val="E-BZ+ZIfJcX-3"/>
+      </rPr>
+      <t xml:space="preserve">CADAL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color theme="1"/>
+        <rFont val="AdobeSongStd-Light"/>
+      </rPr>
+      <t>民国珍藏库</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">CALIS </t>
+  </si>
+  <si>
+    <t>CADAL</t>
+  </si>
+  <si>
+    <t>http://www.lib.whu.edu.cn/~calis/</t>
+  </si>
+  <si>
+    <t>北京师范大学</t>
+  </si>
+  <si>
+    <t>民国图书全文库</t>
+  </si>
+  <si>
+    <t>南京大学图书馆</t>
+  </si>
+  <si>
+    <t>南大图书馆馆藏民国图书数据库</t>
+  </si>
+  <si>
+    <t>大成老旧期刊全文数据库</t>
+  </si>
+  <si>
+    <t>大成故纸堆</t>
+  </si>
+  <si>
+    <r>
+      <t>中国党史期刊数据库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color theme="1"/>
+        <rFont val="AdobeHeitiStd-Regular"/>
+      </rPr>
+      <t xml:space="preserve">( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color theme="1"/>
+        <rFont val="E-BZ+ZIfJcX-3"/>
+      </rPr>
+      <t>～ 1949</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color theme="1"/>
+        <rFont val="AdobeHeitiStd-Regular"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>尚品大成数据技术有限公司</t>
+  </si>
+  <si>
+    <t>北京爱如生数字化技术研究中心</t>
+  </si>
+  <si>
+    <t>大成民国图书全文数据库</t>
+  </si>
+  <si>
+    <t>中国近代报刊库</t>
+  </si>
+  <si>
+    <t>民国图书库</t>
+  </si>
+  <si>
+    <t>北京瀚文典藏文化有限公司</t>
+  </si>
+  <si>
+    <t>瀚文民国书库</t>
+  </si>
+  <si>
+    <r>
+      <t>上海图书馆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>民国时期期刊篇名数据库</t>
+  </si>
+  <si>
+    <t>晚清期刊篇名数据库</t>
+  </si>
+  <si>
+    <r>
+      <t>全国报刊索引数据库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color theme="1"/>
+        <rFont val="HTJ0+ZIfJcX-4"/>
+      </rPr>
+      <t>———</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color theme="1"/>
+        <rFont val="AdobeSongStd-Light"/>
+      </rPr>
+      <t>目次库</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>全国报刊索引数据库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color theme="1"/>
+        <rFont val="HTJ0+ZIfJcX-4"/>
+      </rPr>
+      <t>———</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color theme="1"/>
+        <rFont val="AdobeSongStd-Light"/>
+      </rPr>
+      <t>篇名库</t>
+    </r>
+  </si>
+  <si>
+    <t>湖北省图书馆</t>
+  </si>
+  <si>
+    <t>馆藏民国时期中文图书书目数据</t>
+  </si>
+  <si>
+    <t>中文珍稀期刊题录库</t>
+  </si>
+  <si>
+    <t>北京师范大学图书馆</t>
+  </si>
+  <si>
+    <t>东京审判资源库</t>
+  </si>
+  <si>
+    <t>吉林省图书馆</t>
+  </si>
+  <si>
+    <t>东北抗联数据库</t>
+  </si>
+  <si>
+    <t>东北抗联大事记数据库</t>
+  </si>
+  <si>
+    <t>东北抗联人物志数据库</t>
+  </si>
+  <si>
+    <t xml:space="preserve">上海图书馆 </t>
+  </si>
+  <si>
+    <r>
+      <t>全国报刊索引数据库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color theme="1"/>
+        <rFont val="HTJ0+ZIfJcX-4"/>
+      </rPr>
+      <t>———</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color theme="1"/>
+        <rFont val="AdobeSongStd-Light"/>
+      </rPr>
+      <t>会议库</t>
+    </r>
+  </si>
+  <si>
+    <t>家谱数据库</t>
+  </si>
+  <si>
+    <t>音乐戏剧戏曲专题库</t>
+  </si>
+  <si>
+    <t>近代民国中医药专题库</t>
+  </si>
+  <si>
+    <t>南京图书馆</t>
+  </si>
+  <si>
+    <t>中国近代文献图像数据库</t>
+  </si>
+  <si>
+    <t>馆藏解放前师范学校及中小学教科书全文库</t>
+  </si>
+  <si>
+    <t>湖南图书馆</t>
+  </si>
+  <si>
+    <t>湖南近代人物( 1840 ～ 1919)</t>
+  </si>
+  <si>
+    <t>古籍研习平台</t>
+  </si>
+  <si>
+    <t>古汉语文本自动句读系统</t>
+  </si>
+  <si>
+    <t>全唐诗分析系统</t>
+  </si>
+  <si>
+    <t>北京大学数据分析研究中心</t>
+  </si>
+  <si>
+    <t>上海年华</t>
+  </si>
+  <si>
+    <t>图片上海</t>
+  </si>
+  <si>
+    <r>
+      <t>中国历史文化地图系统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (CCTS) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>台湾历史文化地图系统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (THCTS) </t>
+    </r>
+  </si>
+  <si>
+    <t>台湾中央研究院</t>
+  </si>
+  <si>
+    <t>Mapping Historical Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">美国北德州大学 University of North Texas </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,6 +422,29 @@
       <sz val="9.5"/>
       <color theme="1"/>
       <name val="AdobeSongStd-Light"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <color theme="1"/>
+      <name val="HTJ0+ZIfJcX-4"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <color theme="1"/>
+      <name val="AdobeHeitiStd-Regular"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <color theme="1"/>
+      <name val="E-BZ+ZIfJcX-3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -85,14 +464,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -370,53 +752,413 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="44.5703125" customWidth="1"/>
-    <col min="2" max="2" width="60.140625" customWidth="1"/>
+    <col min="1" max="2" width="44.54296875" customWidth="1"/>
+    <col min="3" max="3" width="60.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C9" r:id="rId1" xr:uid="{685F91BC-4C53-4EF0-BB10-1188D24E390C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Lit_survey/Databases_online.xlsx
+++ b/Lit_survey/Databases_online.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20370"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Documents\GitHub\dh-eastasia-data\Lit_survey\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jia.xie\Documents\GitHub\dh-eastasia-data\Lit_survey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58C5B1C-0CB9-4E23-B906-599BE3AC29DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13490" tabRatio="269" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13485" tabRatio="269"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="78">
   <si>
     <t>民国时期期刊全文数据库</t>
   </si>
@@ -404,12 +403,27 @@
   </si>
   <si>
     <t xml:space="preserve">美国北德州大学 University of North Texas </t>
+  </si>
+  <si>
+    <t>https://www.zslib.com.cn/TempletPage/Page.aspx?column=tc</t>
+  </si>
+  <si>
+    <t>name has been changed to 孙中山多媒体资源库？</t>
+  </si>
+  <si>
+    <t>香港中文大学图书馆中国古籍库</t>
+  </si>
+  <si>
+    <t>https://www.cnbksy.com/product/productDescription?id=13&amp;isProduct=false</t>
+  </si>
+  <si>
+    <t>https://www.cnbksy.com/product/productDescription?id=14&amp;isProduct=false</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -752,20 +766,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="44.54296875" customWidth="1"/>
-    <col min="3" max="3" width="60.1796875" customWidth="1"/>
+    <col min="1" max="2" width="44.5703125" customWidth="1"/>
+    <col min="3" max="3" width="60.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -773,7 +787,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -781,7 +795,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -792,7 +806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -803,7 +817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -814,7 +828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -825,7 +839,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -833,7 +847,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -842,29 +856,38 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="C11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="C12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -872,7 +895,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -880,7 +903,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -888,7 +911,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -896,7 +919,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
@@ -904,7 +927,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
@@ -912,7 +935,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -920,7 +943,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
@@ -928,7 +951,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
@@ -936,7 +959,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
@@ -944,7 +967,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
@@ -952,7 +975,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>37</v>
       </c>
@@ -960,23 +983,29 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>41</v>
       </c>
@@ -984,7 +1013,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>42</v>
       </c>
@@ -992,7 +1021,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>44</v>
       </c>
@@ -1000,7 +1029,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
         <v>45</v>
       </c>
@@ -1008,7 +1037,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>47</v>
       </c>
@@ -1016,7 +1045,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
         <v>49</v>
       </c>
@@ -1154,11 +1183,17 @@
         <v>72</v>
       </c>
     </row>
+    <row r="50" spans="1:2">
+      <c r="B50" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C9" r:id="rId1" xr:uid="{685F91BC-4C53-4EF0-BB10-1188D24E390C}"/>
+    <hyperlink ref="C9" r:id="rId1"/>
+    <hyperlink ref="C26" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Lit_survey/Databases_online.xlsx
+++ b/Lit_survey/Databases_online.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20370"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Documents\GitHub\dh-eastasia-data\Lit_survey\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xjcel\Documents\GitHub\dh-eastasia-data\Lit_survey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58C5B1C-0CB9-4E23-B906-599BE3AC29DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13490" tabRatio="269" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13485" tabRatio="269"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="93">
   <si>
     <t>民国时期期刊全文数据库</t>
   </si>
@@ -33,9 +32,6 @@
     <t>https://www.cnbksy.com/product/productDescription?id=12</t>
   </si>
   <si>
-    <t>民国期刊</t>
-  </si>
-  <si>
     <t>timeout</t>
   </si>
   <si>
@@ -152,9 +148,6 @@
     <t>南京大学图书馆</t>
   </si>
   <si>
-    <t>南大图书馆馆藏民国图书数据库</t>
-  </si>
-  <si>
     <t>大成老旧期刊全文数据库</t>
   </si>
   <si>
@@ -218,7 +211,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -374,7 +367,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -389,7 +382,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -404,17 +397,157 @@
   </si>
   <si>
     <t xml:space="preserve">美国北德州大学 University of North Texas </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>民国时期期刊全文数据库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color theme="1"/>
+        <rFont val="AdobeHeitiStd-Regular"/>
+      </rPr>
+      <t xml:space="preserve">( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color theme="1"/>
+        <rFont val="E-BZ+ZIfJcX-3"/>
+      </rPr>
+      <t>1911</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color theme="1"/>
+        <rFont val="E-BZ+ZIfJcX-3"/>
+      </rPr>
+      <t>1949</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color theme="1"/>
+        <rFont val="AdobeHeitiStd-Regular"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://dbnav.lib.pku.edu.cn/content/%E6%99%9A%E6%B8%85%E6%B0%91%E5%9B%BD%E6%97%A7%E6%8A%A5%E5%88%8A</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚清民国旧报刊</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.lib.whu.edu.cn/web/dzzy/detail.asp?q=IDN=WHU05725&amp;s=detail&amp;full=Y</t>
+  </si>
+  <si>
+    <t>http://202.112.82.7:8080/V/JP463T29GEEYB34K2NFXBPLK9YRQUAR4FX6US8B5N66HITH3VB-03278?FUNC=NATIVE-LINK&amp;RESOURCE=BNU01459&amp;pds_handle=GUEST</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>(flash needed)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>南大图书馆馆藏民国图书数据库</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://cadal.hytung.cn/Main.aspx</t>
+  </si>
+  <si>
+    <t>民国期刊</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>民國文獻大全（～1949）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京時代瀚堂科技有限公司</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://lib.nju.edu.cn/tszy/mgwx.htm</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>the webpage is EMPTY!</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.dachengdata.com/tuijian/</t>
+  </si>
+  <si>
+    <t>http://www.dachengdata.com/tuijian/showTuijianList.action?cataid=1</t>
+  </si>
+  <si>
+    <t>http://tushu.dachengdata.com/tuijian/showTuijianList.action</t>
+  </si>
+  <si>
+    <t>http://dangshi.dachengdata.com/tuijian/showTuijianList.action</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.neohytung.com/</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>近代报刊</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's the same with CNBKSY</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://er07.com/home/pro_89.html</t>
+  </si>
+  <si>
+    <t>http://er07.com/home/pro_114.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -442,9 +575,29 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -468,14 +621,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -752,413 +906,483 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="44.54296875" customWidth="1"/>
-    <col min="3" max="3" width="60.1796875" customWidth="1"/>
+    <col min="1" max="2" width="44.5" customWidth="1"/>
+    <col min="3" max="3" width="60.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="D13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
+      <c r="C14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="C15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
+      <c r="C17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
+      <c r="B20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
+      <c r="B21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
+      <c r="C23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1" t="s">
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1" t="s">
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1" t="s">
+      <c r="B27" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1" t="s">
+      <c r="B28" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="1" t="s">
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="1" t="s">
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
         <v>69</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>71</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>72</v>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>80</v>
+      </c>
+      <c r="B50" t="s">
+        <v>81</v>
+      </c>
+      <c r="C50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C9" r:id="rId1" xr:uid="{685F91BC-4C53-4EF0-BB10-1188D24E390C}"/>
+    <hyperlink ref="C9" r:id="rId1"/>
+    <hyperlink ref="C14" r:id="rId2"/>
+    <hyperlink ref="C16" r:id="rId3"/>
+    <hyperlink ref="C17" r:id="rId4"/>
+    <hyperlink ref="C21" r:id="rId5"/>
+    <hyperlink ref="C51" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/Lit_survey/Databases_online.xlsx
+++ b/Lit_survey/Databases_online.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="96">
   <si>
     <t>民国时期期刊全文数据库</t>
   </si>
@@ -537,6 +537,18 @@
   </si>
   <si>
     <t>http://er07.com/home/pro_114.html</t>
+  </si>
+  <si>
+    <t>notes</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>link</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -907,10 +919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D51"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -919,6 +931,17 @@
     <col min="3" max="3" width="60.125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" t="s">
+        <v>93</v>
+      </c>
+    </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>79</v>

--- a/Lit_survey/Databases_online.xlsx
+++ b/Lit_survey/Databases_online.xlsx
@@ -477,9 +477,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>http://cadal.hytung.cn/Main.aspx</t>
-  </si>
-  <si>
     <t>民国期刊</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -548,6 +545,10 @@
   </si>
   <si>
     <t>link</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://cadal.hytung.cn/Main.aspx</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -921,8 +922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -933,18 +934,18 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" t="s">
         <v>94</v>
       </c>
-      <c r="C1" t="s">
-        <v>95</v>
-      </c>
       <c r="D1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
@@ -1049,7 +1050,7 @@
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1099,10 +1100,10 @@
         <v>25</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" t="s">
         <v>82</v>
-      </c>
-      <c r="D17" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1113,7 +1114,7 @@
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1124,7 +1125,7 @@
         <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1135,7 +1136,7 @@
         <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1146,7 +1147,7 @@
         <v>29</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1157,7 +1158,7 @@
         <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1168,7 +1169,7 @@
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1375,24 +1376,24 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
+        <v>79</v>
+      </c>
+      <c r="B50" t="s">
         <v>80</v>
       </c>
-      <c r="B50" t="s">
-        <v>81</v>
-      </c>
-      <c r="C50" t="s">
-        <v>78</v>
+      <c r="C50" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1404,8 +1405,9 @@
     <hyperlink ref="C17" r:id="rId4"/>
     <hyperlink ref="C21" r:id="rId5"/>
     <hyperlink ref="C51" r:id="rId6"/>
+    <hyperlink ref="C50" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/Lit_survey/Databases_online.xlsx
+++ b/Lit_survey/Databases_online.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xjcel\Documents\GitHub\dh-eastasia-data\Lit_survey\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jia.xie\Documents\GitHub\dh-eastasia-data\Lit_survey\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="114">
   <si>
     <t>民国时期期刊全文数据库</t>
   </si>
@@ -133,9 +133,6 @@
     <t xml:space="preserve">CALIS </t>
   </si>
   <si>
-    <t>CADAL</t>
-  </si>
-  <si>
     <t>http://www.lib.whu.edu.cn/~calis/</t>
   </si>
   <si>
@@ -192,9 +189,6 @@
     <t>大成民国图书全文数据库</t>
   </si>
   <si>
-    <t>中国近代报刊库</t>
-  </si>
-  <si>
     <t>民国图书库</t>
   </si>
   <si>
@@ -211,7 +205,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -367,7 +361,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -382,7 +376,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -454,10 +448,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>https://dbnav.lib.pku.edu.cn/content/%E6%99%9A%E6%B8%85%E6%B0%91%E5%9B%BD%E6%97%A7%E6%8A%A5%E5%88%8A</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>晚清民国旧报刊</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -526,10 +516,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>It's the same with CNBKSY</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>http://er07.com/home/pro_89.html</t>
   </si>
   <si>
@@ -540,27 +526,92 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>link</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>http://cadal.hytung.cn/Main.aspx</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.hwshu.com/front/home/aboutus.do</t>
+  </si>
+  <si>
+    <t>http://digi2.lib.bnu.edu.cn:8080/digilib/search?channelid=28625</t>
+  </si>
+  <si>
+    <t>full-text?</t>
+  </si>
+  <si>
+    <t>中国近代报刊库(大报)</t>
+  </si>
+  <si>
+    <t>中国近代报刊库(要刊)</t>
+  </si>
+  <si>
+    <t>http://er07.com/home/pro_88.html</t>
+  </si>
+  <si>
+    <t>full-text search</t>
+  </si>
+  <si>
+    <t>names and descriptions of journals</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>images</t>
+  </si>
+  <si>
+    <t>https://dbnav.lib.pku.edu.cn/content/%E6%99%9A%E6%B8%85%E6%B0%91%E5%9B%BD%E6%97%A7%E6%8A%A5%E5%88%8A</t>
+  </si>
+  <si>
+    <t>search by name</t>
+  </si>
+  <si>
+    <t>https://cadal.edu.cn/index/home</t>
+  </si>
+  <si>
+    <t>access</t>
+  </si>
+  <si>
+    <t>CrossAsia</t>
+  </si>
+  <si>
+    <t>subcription needed</t>
+  </si>
+  <si>
+    <t>CADAL 大学图书馆国际合作计划</t>
+  </si>
+  <si>
+    <t>latest update in 2004…</t>
+  </si>
+  <si>
+    <t>campus net</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>institution</t>
+  </si>
+  <si>
+    <t>did not find. It's might be the subcribed CNBKSY?</t>
+  </si>
+  <si>
+    <t>it is the WHU's login portal into CADAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -588,13 +639,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -641,8 +692,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -920,46 +971,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="44.5" customWidth="1"/>
-    <col min="3" max="3" width="60.125" customWidth="1"/>
+    <col min="1" max="2" width="44.42578125" customWidth="1"/>
+    <col min="3" max="3" width="60.140625" customWidth="1"/>
+    <col min="4" max="4" width="44.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>110</v>
+      </c>
       <c r="B1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" t="s">
         <v>93</v>
       </c>
-      <c r="C1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="F1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -970,7 +1039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -980,8 +1049,11 @@
       <c r="C5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -991,8 +1063,14 @@
       <c r="C6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1002,8 +1080,14 @@
       <c r="C7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1011,22 +1095,40 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="C10" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1034,7 +1136,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1042,18 +1144,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -1061,339 +1163,404 @@
         <v>16</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>70</v>
+      </c>
+      <c r="E14" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="B19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
         <v>81</v>
       </c>
-      <c r="D17" t="s">
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
+    <row r="21" spans="1:6">
+      <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="C22" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1" t="s">
+      <c r="C23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1" t="s">
+      <c r="C24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" t="s">
+        <v>97</v>
+      </c>
+      <c r="F24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="C25" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1" t="s">
+    <row r="26" spans="1:6">
+      <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1" t="s">
+    <row r="27" spans="1:6">
+      <c r="A27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1" t="s">
+      <c r="B28" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1" t="s">
+      <c r="B29" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="1" t="s">
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="1" t="s">
+      <c r="C31" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
         <v>57</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>59</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="1" t="s">
-        <v>60</v>
+      <c r="B42" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>69</v>
+      <c r="A49" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>79</v>
-      </c>
-      <c r="B50" t="s">
-        <v>80</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>95</v>
+        <v>67</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1" t="s">
-        <v>88</v>
+      <c r="A51" t="s">
+        <v>76</v>
       </c>
       <c r="B51" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1404,10 +1571,17 @@
     <hyperlink ref="C16" r:id="rId3"/>
     <hyperlink ref="C17" r:id="rId4"/>
     <hyperlink ref="C21" r:id="rId5"/>
-    <hyperlink ref="C51" r:id="rId6"/>
-    <hyperlink ref="C50" r:id="rId7"/>
+    <hyperlink ref="C52" r:id="rId6"/>
+    <hyperlink ref="C51" r:id="rId7"/>
+    <hyperlink ref="C25" r:id="rId8"/>
+    <hyperlink ref="C31" r:id="rId9"/>
+    <hyperlink ref="C22" r:id="rId10"/>
+    <hyperlink ref="C23" r:id="rId11"/>
+    <hyperlink ref="C18" r:id="rId12"/>
+    <hyperlink ref="C15" r:id="rId13"/>
+    <hyperlink ref="C10" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
--- a/Lit_survey/Databases_online.xlsx
+++ b/Lit_survey/Databases_online.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="117">
   <si>
     <t>民国时期期刊全文数据库</t>
   </si>
@@ -483,10 +483,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>the webpage is EMPTY!</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>http://www.dachengdata.com/tuijian/</t>
   </si>
   <si>
@@ -597,10 +593,22 @@
     <t>institution</t>
   </si>
   <si>
-    <t>did not find. It's might be the subcribed CNBKSY?</t>
-  </si>
-  <si>
     <t>it is the WHU's login portal into CADAL</t>
+  </si>
+  <si>
+    <t>民国时期期刊全文数据库(1911-1949)</t>
+  </si>
+  <si>
+    <t>partial</t>
+  </si>
+  <si>
+    <t>titles</t>
+  </si>
+  <si>
+    <t>its webpage is EMPTY!</t>
+  </si>
+  <si>
+    <t>did not find. It's might be the subcribed part of CNBKSY?</t>
   </si>
 </sst>
 </file>
@@ -974,7 +982,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -988,22 +996,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" t="s">
         <v>110</v>
       </c>
-      <c r="B1" t="s">
-        <v>111</v>
-      </c>
       <c r="C1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1041,16 +1049,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
+        <v>113</v>
+      </c>
+      <c r="F5" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1064,10 +1075,10 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="F6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1080,9 +1091,6 @@
       <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" t="s">
-        <v>97</v>
-      </c>
       <c r="F7" t="s">
         <v>105</v>
       </c>
@@ -1104,28 +1112,28 @@
         <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1152,7 +1160,7 @@
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1163,16 +1171,16 @@
         <v>16</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D14" t="s">
         <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1186,13 +1194,13 @@
         <v>71</v>
       </c>
       <c r="D15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1209,10 +1217,10 @@
         <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1226,13 +1234,13 @@
         <v>78</v>
       </c>
       <c r="D17" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="E17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1243,7 +1251,7 @@
         <v>28</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1254,7 +1262,7 @@
         <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1265,7 +1273,7 @@
         <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1276,41 +1284,41 @@
         <v>28</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" t="s">
         <v>96</v>
       </c>
-      <c r="E22" t="s">
-        <v>97</v>
-      </c>
       <c r="F22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1321,13 +1329,13 @@
         <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1338,7 +1346,13 @@
         <v>32</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
+      </c>
+      <c r="E25" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1348,6 +1362,12 @@
       <c r="B26" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="E26" t="s">
+        <v>114</v>
+      </c>
+      <c r="F26" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
@@ -1356,6 +1376,12 @@
       <c r="B27" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="E27" t="s">
+        <v>114</v>
+      </c>
+      <c r="F27" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
@@ -1389,10 +1415,10 @@
         <v>42</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1549,18 +1575,18 @@
         <v>77</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B52" t="s">
         <v>77</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1580,8 +1606,9 @@
     <hyperlink ref="C18" r:id="rId12"/>
     <hyperlink ref="C15" r:id="rId13"/>
     <hyperlink ref="C10" r:id="rId14"/>
+    <hyperlink ref="C5" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
--- a/Lit_survey/Databases_online.xlsx
+++ b/Lit_survey/Databases_online.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="135">
   <si>
     <t>民国时期期刊全文数据库</t>
   </si>
@@ -357,9 +357,6 @@
     <t>民国时期期刊全文数据库(1911-1949)</t>
   </si>
   <si>
-    <t>partial</t>
-  </si>
-  <si>
     <t>titles</t>
   </si>
   <si>
@@ -367,9 +364,6 @@
   </si>
   <si>
     <t>integrated within CNKBKSY</t>
-  </si>
-  <si>
-    <t>did not find.</t>
   </si>
   <si>
     <t>it should be there but the webpage is EMPTY!</t>
@@ -454,6 +448,36 @@
   </si>
   <si>
     <t>https://www.cnbksy.com/product/productDescription?id=13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">partially </t>
+  </si>
+  <si>
+    <t>http://www.zslib.com.cn/Page/Page_tc.html</t>
+  </si>
+  <si>
+    <t>孙中山多媒体资源库?</t>
+  </si>
+  <si>
+    <t>特藏文献数据库</t>
+  </si>
+  <si>
+    <t>not found</t>
+  </si>
+  <si>
+    <t>library users</t>
+  </si>
+  <si>
+    <t>name of institute is not correct?</t>
+  </si>
+  <si>
+    <t>(possibly images)</t>
+  </si>
+  <si>
+    <t>the integrated Dacheng database</t>
+  </si>
+  <si>
+    <t>chronicle/photos/persons/names of monographies/videos</t>
   </si>
 </sst>
 </file>
@@ -810,17 +834,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="44.42578125" customWidth="1"/>
     <col min="3" max="3" width="60.140625" customWidth="1"/>
-    <col min="4" max="4" width="44.42578125" customWidth="1"/>
+    <col min="4" max="4" width="52.85546875" customWidth="1"/>
     <col min="5" max="5" width="20.5703125" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" customWidth="1"/>
   </cols>
@@ -856,7 +880,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="F2" t="s">
         <v>93</v>
@@ -873,7 +897,7 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="F3" t="s">
         <v>93</v>
@@ -901,13 +925,13 @@
         <v>30</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F5" t="s">
         <v>93</v>
@@ -921,13 +945,13 @@
         <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F6" t="s">
         <v>93</v>
@@ -935,26 +959,53 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="D7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="D8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -983,13 +1034,13 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1057,7 +1108,7 @@
         <v>36</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E17" t="s">
         <v>87</v>
@@ -1142,13 +1193,13 @@
         <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1162,7 +1213,7 @@
         <v>68</v>
       </c>
       <c r="D23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E23" t="s">
         <v>87</v>
@@ -1179,10 +1230,13 @@
         <v>38</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
+      </c>
+      <c r="D24" t="s">
+        <v>134</v>
       </c>
       <c r="F24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1193,13 +1247,13 @@
         <v>38</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" t="s">
         <v>108</v>
       </c>
-      <c r="D25" t="s">
-        <v>110</v>
-      </c>
       <c r="F25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1210,13 +1264,13 @@
         <v>38</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" t="s">
         <v>108</v>
       </c>
-      <c r="D26" t="s">
-        <v>110</v>
-      </c>
       <c r="F26" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1229,6 +1283,12 @@
       <c r="C27" t="s">
         <v>2</v>
       </c>
+      <c r="E27" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="3" t="s">
@@ -1240,6 +1300,12 @@
       <c r="C28" t="s">
         <v>2</v>
       </c>
+      <c r="E28" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="3" t="s">
@@ -1251,6 +1317,12 @@
       <c r="C29" t="s">
         <v>2</v>
       </c>
+      <c r="E29" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="3" t="s">
@@ -1262,6 +1334,9 @@
       <c r="C30" t="s">
         <v>2</v>
       </c>
+      <c r="E30" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="3" t="s">
@@ -1273,6 +1348,9 @@
       <c r="C31" s="2" t="s">
         <v>69</v>
       </c>
+      <c r="D31" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="3" t="s">
@@ -1284,6 +1362,12 @@
       <c r="C32" t="s">
         <v>70</v>
       </c>
+      <c r="E32" t="s">
+        <v>88</v>
+      </c>
+      <c r="F32" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="3" t="s">
@@ -1295,16 +1379,28 @@
       <c r="C33" t="s">
         <v>71</v>
       </c>
+      <c r="E33" t="s">
+        <v>132</v>
+      </c>
+      <c r="F33" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>72</v>
+      </c>
+      <c r="E34" t="s">
+        <v>132</v>
+      </c>
+      <c r="F34" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1314,6 +1410,9 @@
       <c r="B35" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="D35" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="3" t="s">
@@ -1322,25 +1421,34 @@
       <c r="B36" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C36" t="s">
+        <v>126</v>
+      </c>
+      <c r="D36" t="s">
+        <v>127</v>
+      </c>
+      <c r="E36" t="s">
+        <v>87</v>
+      </c>
+      <c r="F36" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="3" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D37" t="s">
-        <v>100</v>
+        <v>13</v>
+      </c>
+      <c r="C37" t="s">
+        <v>126</v>
       </c>
       <c r="E37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F37" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1348,115 +1456,130 @@
         <v>119</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" t="s">
+        <v>100</v>
+      </c>
+      <c r="E38" t="s">
+        <v>88</v>
+      </c>
+      <c r="F38" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="3" t="s">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="3" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
+      </c>
+      <c r="D40" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D41" t="s">
-        <v>96</v>
-      </c>
-      <c r="E41" t="s">
-        <v>87</v>
-      </c>
-      <c r="F41" t="s">
-        <v>87</v>
+        <v>50</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="3" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="2" t="s">
-        <v>91</v>
+        <v>19</v>
+      </c>
+      <c r="D42" t="s">
+        <v>96</v>
       </c>
       <c r="E42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F42" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="3" t="s">
-        <v>51</v>
+        <v>95</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E43" t="s">
+        <v>88</v>
+      </c>
+      <c r="F43" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D46" t="s">
-        <v>124</v>
-      </c>
-      <c r="F46" t="s">
-        <v>109</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="C47" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D47" t="s">
+        <v>122</v>
+      </c>
+      <c r="F47" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="3" t="s">
-        <v>114</v>
+        <v>56</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>57</v>
@@ -1464,31 +1587,39 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B51" t="s">
-        <v>67</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>78</v>
+        <v>58</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="3" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="B52" t="s">
         <v>67</v>
       </c>
       <c r="C52" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B53" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1498,27 +1629,27 @@
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C41" r:id="rId1"/>
+    <hyperlink ref="C42" r:id="rId1"/>
     <hyperlink ref="C14" r:id="rId2"/>
     <hyperlink ref="C15" r:id="rId3"/>
     <hyperlink ref="C23" r:id="rId4"/>
     <hyperlink ref="C34" r:id="rId5"/>
-    <hyperlink ref="C52" r:id="rId6"/>
-    <hyperlink ref="C51" r:id="rId7"/>
+    <hyperlink ref="C53" r:id="rId6"/>
+    <hyperlink ref="C52" r:id="rId7"/>
     <hyperlink ref="C18" r:id="rId8"/>
     <hyperlink ref="C16" r:id="rId9"/>
     <hyperlink ref="C19" r:id="rId10"/>
     <hyperlink ref="C20" r:id="rId11"/>
     <hyperlink ref="C31" r:id="rId12"/>
-    <hyperlink ref="C37" r:id="rId13"/>
-    <hyperlink ref="C42" r:id="rId14"/>
+    <hyperlink ref="C38" r:id="rId13"/>
+    <hyperlink ref="C43" r:id="rId14"/>
     <hyperlink ref="C2" r:id="rId15"/>
     <hyperlink ref="C24" r:id="rId16"/>
     <hyperlink ref="C25" r:id="rId17"/>
     <hyperlink ref="C26" r:id="rId18"/>
     <hyperlink ref="C22" r:id="rId19"/>
     <hyperlink ref="C17" r:id="rId20"/>
-    <hyperlink ref="C46" r:id="rId21"/>
+    <hyperlink ref="C47" r:id="rId21"/>
     <hyperlink ref="C4" r:id="rId22"/>
     <hyperlink ref="C5" r:id="rId23"/>
     <hyperlink ref="C6" r:id="rId24"/>

--- a/Lit_survey/Databases_online.xlsx
+++ b/Lit_survey/Databases_online.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="140">
   <si>
     <t>民国时期期刊全文数据库</t>
   </si>
@@ -450,9 +450,6 @@
     <t>https://www.cnbksy.com/product/productDescription?id=13</t>
   </si>
   <si>
-    <t xml:space="preserve">partially </t>
-  </si>
-  <si>
     <t>http://www.zslib.com.cn/Page/Page_tc.html</t>
   </si>
   <si>
@@ -478,6 +475,24 @@
   </si>
   <si>
     <t>chronicle/photos/persons/names of monographies/videos</t>
+  </si>
+  <si>
+    <t>https://jiapu.library.sh.cn/#/</t>
+  </si>
+  <si>
+    <t>家谱知识服务平台？</t>
+  </si>
+  <si>
+    <t>images (partially OCR)</t>
+  </si>
+  <si>
+    <t>http://hnjdrw.txhn.net/</t>
+  </si>
+  <si>
+    <t>very bad connection, most pages not available</t>
+  </si>
+  <si>
+    <t>pdf</t>
   </si>
 </sst>
 </file>
@@ -836,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -879,8 +894,11 @@
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="D2" t="s">
+        <v>104</v>
+      </c>
       <c r="E2" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="F2" t="s">
         <v>93</v>
@@ -896,8 +914,11 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
+      <c r="D3" t="s">
+        <v>104</v>
+      </c>
       <c r="E3" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="F3" t="s">
         <v>93</v>
@@ -913,6 +934,12 @@
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="D4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" t="s">
+        <v>88</v>
+      </c>
       <c r="F4" t="s">
         <v>94</v>
       </c>
@@ -1015,6 +1042,15 @@
       <c r="B10" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="C10" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
@@ -1023,6 +1059,9 @@
       <c r="B11" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="D11" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
@@ -1031,6 +1070,9 @@
       <c r="B12" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="D12" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3" t="s">
@@ -1233,7 +1275,7 @@
         <v>106</v>
       </c>
       <c r="D24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F24" t="s">
         <v>107</v>
@@ -1349,7 +1391,7 @@
         <v>69</v>
       </c>
       <c r="D31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1380,7 +1422,7 @@
         <v>71</v>
       </c>
       <c r="E33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F33" t="s">
         <v>94</v>
@@ -1397,7 +1439,7 @@
         <v>72</v>
       </c>
       <c r="E34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F34" t="s">
         <v>94</v>
@@ -1411,7 +1453,7 @@
         <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1422,33 +1464,33 @@
         <v>13</v>
       </c>
       <c r="C36" t="s">
+        <v>125</v>
+      </c>
+      <c r="D36" t="s">
         <v>126</v>
-      </c>
-      <c r="D36" t="s">
-        <v>127</v>
       </c>
       <c r="E36" t="s">
         <v>87</v>
       </c>
       <c r="F36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E37" t="s">
         <v>87</v>
       </c>
       <c r="F37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1479,7 +1521,7 @@
         <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1490,7 +1532,7 @@
         <v>33</v>
       </c>
       <c r="D40" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1499,6 +1541,12 @@
       </c>
       <c r="B41" s="1" t="s">
         <v>49</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D41" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1653,8 +1701,10 @@
     <hyperlink ref="C4" r:id="rId22"/>
     <hyperlink ref="C5" r:id="rId23"/>
     <hyperlink ref="C6" r:id="rId24"/>
+    <hyperlink ref="C10" r:id="rId25" location="/"/>
+    <hyperlink ref="C41" r:id="rId26"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId25"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId27"/>
 </worksheet>
 </file>
--- a/Lit_survey/Databases_online.xlsx
+++ b/Lit_survey/Databases_online.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="145">
   <si>
     <t>民国时期期刊全文数据库</t>
   </si>
@@ -493,6 +493,21 @@
   </si>
   <si>
     <t>pdf</t>
+  </si>
+  <si>
+    <t>http://thcts.sinica.edu.tw/</t>
+  </si>
+  <si>
+    <t>https://ccts.sinica.edu.tw/</t>
+  </si>
+  <si>
+    <t>application needed</t>
+  </si>
+  <si>
+    <t>http://mappingtexts.org/</t>
+  </si>
+  <si>
+    <t>http://202.106.125.44:8082/tang/</t>
   </si>
 </sst>
 </file>
@@ -851,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1059,7 +1074,7 @@
       <c r="B11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C11" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1070,7 +1085,7 @@
       <c r="B12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D12" t="s">
+      <c r="C12" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1081,6 +1096,9 @@
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C13" t="s">
+        <v>128</v>
+      </c>
       <c r="D13" t="s">
         <v>103</v>
       </c>
@@ -1452,7 +1470,7 @@
       <c r="B35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D35" t="s">
+      <c r="C35" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1520,6 +1538,9 @@
       <c r="B39" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C39" t="s">
+        <v>128</v>
+      </c>
       <c r="D39" t="s">
         <v>130</v>
       </c>
@@ -1531,7 +1552,7 @@
       <c r="B40" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D40" t="s">
+      <c r="C40" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1586,11 +1607,17 @@
       <c r="A44" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="C44" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="3" t="s">
         <v>52</v>
       </c>
+      <c r="C45" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="3" t="s">
@@ -1599,6 +1626,12 @@
       <c r="B46" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="C46" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D46" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="3" t="s">
@@ -1624,32 +1657,50 @@
       <c r="B48" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="C48" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="3" t="s">
         <v>112</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="C49" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F49" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="3" t="s">
         <v>113</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="C50" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F50" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="C51" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="3" t="s">
         <v>66</v>
       </c>
@@ -1659,8 +1710,14 @@
       <c r="C52" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="E52" t="s">
+        <v>85</v>
+      </c>
+      <c r="F52" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="3" t="s">
         <v>120</v>
       </c>
@@ -1669,6 +1726,12 @@
       </c>
       <c r="C53" s="2" t="s">
         <v>73</v>
+      </c>
+      <c r="E53" t="s">
+        <v>85</v>
+      </c>
+      <c r="F53" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1703,8 +1766,12 @@
     <hyperlink ref="C6" r:id="rId24"/>
     <hyperlink ref="C10" r:id="rId25" location="/"/>
     <hyperlink ref="C41" r:id="rId26"/>
+    <hyperlink ref="C50" r:id="rId27"/>
+    <hyperlink ref="C49" r:id="rId28"/>
+    <hyperlink ref="C51" r:id="rId29"/>
+    <hyperlink ref="C46" r:id="rId30"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId27"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId31"/>
 </worksheet>
 </file>
--- a/Lit_survey/Databases_online.xlsx
+++ b/Lit_survey/Databases_online.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="144">
   <si>
     <t>民国时期期刊全文数据库</t>
   </si>
@@ -490,9 +490,6 @@
   </si>
   <si>
     <t>very bad connection, most pages not available</t>
-  </si>
-  <si>
-    <t>pdf</t>
   </si>
   <si>
     <t>http://thcts.sinica.edu.tw/</t>
@@ -867,7 +864,7 @@
   <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1063,9 +1060,6 @@
       <c r="D10" t="s">
         <v>135</v>
       </c>
-      <c r="E10" t="s">
-        <v>139</v>
-      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
@@ -1627,7 +1621,7 @@
         <v>54</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D46" t="s">
         <v>2</v>
@@ -1669,10 +1663,10 @@
         <v>57</v>
       </c>
       <c r="C49" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F49" t="s">
         <v>141</v>
-      </c>
-      <c r="F49" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,10 +1677,10 @@
         <v>57</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1697,7 +1691,7 @@
         <v>59</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52" spans="1:6">

--- a/Lit_survey/Databases_online.xlsx
+++ b/Lit_survey/Databases_online.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="144">
   <si>
     <t>民国时期期刊全文数据库</t>
   </si>
@@ -511,7 +511,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -537,13 +537,6 @@
       <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -579,7 +572,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -863,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1147,6 +1140,9 @@
       <c r="C16" s="2" t="s">
         <v>80</v>
       </c>
+      <c r="D16" t="s">
+        <v>63</v>
+      </c>
       <c r="E16" t="s">
         <v>86</v>
       </c>
@@ -1163,6 +1159,9 @@
       </c>
       <c r="C17" s="2" t="s">
         <v>111</v>
+      </c>
+      <c r="D17" t="s">
+        <v>63</v>
       </c>
       <c r="E17" t="s">
         <v>87</v>
